--- a/inactive_assets.xlsx
+++ b/inactive_assets.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,12 +459,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IT657345</t>
+          <t>GC22/12/12337</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bed type A</t>
+          <t>filter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -474,46 +474,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SSO office</t>
+          <t>h24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12190023</t>
+          <t>12190040</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45074</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>IT657351</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>filter</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>dorm_amenities</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>h17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>12190040</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>45080</v>
+        <v>45087</v>
       </c>
     </row>
   </sheetData>
